--- a/experiment_results/SBFL_ONLY/Summary/ExamDB/multiple_bugs_123bug.xlsx
+++ b/experiment_results/SBFL_ONLY/Summary/ExamDB/multiple_bugs_123bug.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="9">
   <si>
     <t>EVALUATION_METRIC</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Worst rank</t>
+  </si>
+  <si>
+    <t>Best exam</t>
+  </si>
+  <si>
+    <t>Worst exam</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,6 +520,22 @@
         <v>26.4983870967742</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>3.14355481300603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>10.55712633337616</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -521,7 +543,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -640,6 +662,22 @@
         <v>24.44677419354839</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.122606348798347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>9.739750674720442</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -647,7 +685,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -766,6 +804,22 @@
         <v>16.98064516129032</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.121963757871731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>6.765197275414458</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -773,7 +827,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -892,6 +946,22 @@
         <v>16.95322580645161</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.121321166945115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>6.754273229661985</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -899,7 +969,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1018,6 +1088,22 @@
         <v>16.95322580645161</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.121321166945115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>6.754273229661985</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1025,7 +1111,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1144,6 +1230,22 @@
         <v>17.66774193548387</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.113610075825722</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>7.038941010152916</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1151,7 +1253,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1270,6 +1372,22 @@
         <v>39.52741935483871</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2.175170286595544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>15.74797583858113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1277,7 +1395,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1396,6 +1514,22 @@
         <v>49.86451612903226</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>7.161033286210009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>19.86634108726387</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1403,7 +1537,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1522,6 +1656,22 @@
         <v>41.61129032258064</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2.770852075568659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>16.57820331576913</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1529,7 +1679,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1648,6 +1798,22 @@
         <v>24.44677419354839</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.122606348798347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>9.739750674720442</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1655,7 +1821,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1774,6 +1940,22 @@
         <v>24.44677419354839</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.122606348798347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>9.739750674720442</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1781,7 +1963,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1900,6 +2082,22 @@
         <v>25.09032258064516</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.113610075825722</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>9.996144454440273</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1907,7 +2105,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2026,6 +2224,22 @@
         <v>41.61129032258064</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2.770852075568659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>16.57820331576913</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2033,7 +2247,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2152,6 +2366,22 @@
         <v>41.61129032258064</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2.770852075568659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>16.57820331576913</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2159,7 +2389,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2278,6 +2508,22 @@
         <v>41.61129032258064</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2.770852075568659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>16.57820331576913</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2285,7 +2531,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2404,6 +2650,22 @@
         <v>32.44032258064516</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2.831255622670597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>12.92443130702994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2411,7 +2673,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2530,6 +2792,22 @@
         <v>26.81774193548387</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.143169258450063</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>10.68435933684615</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2537,7 +2815,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2656,6 +2934,22 @@
         <v>41.61129032258064</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2.770852075568659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>16.57820331576913</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2663,7 +2957,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2782,6 +3076,22 @@
         <v>19.82903225806452</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.109754530266025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>7.900012851818524</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2789,7 +3099,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2908,6 +3218,22 @@
         <v>24.44677419354839</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.122606348798347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>9.739750674720442</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2915,7 +3241,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3034,6 +3360,22 @@
         <v>24.44677419354839</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.122606348798347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>9.739750674720442</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3041,7 +3383,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3160,6 +3502,22 @@
         <v>20.02258064516129</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.143169258450063</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>7.977123763012458</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3167,7 +3525,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3286,6 +3644,22 @@
         <v>33.76935483870967</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>4.424881120678577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>13.45392623056161</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3293,7 +3667,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3412,6 +3786,22 @@
         <v>31.83709677419355</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.319239172342874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>12.68410230047551</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3419,7 +3809,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3538,6 +3928,22 @@
         <v>26.50483870967742</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>3.146125176712494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>10.55969669708263</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3545,7 +3951,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3664,6 +4070,22 @@
         <v>27.2</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.096902711733704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>10.83665338645415</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3671,7 +4093,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3790,6 +4212,22 @@
         <v>49.86451612903226</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>7.161033286210009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>19.86634108726387</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3797,7 +4235,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3916,6 +4354,22 @@
         <v>41.61129032258064</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2.770852075568659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>16.57820331576913</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3923,7 +4377,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4042,6 +4496,22 @@
         <v>41.61129032258064</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2.770852075568659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>16.57820331576913</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4049,7 +4519,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4168,6 +4638,22 @@
         <v>34.68064516129032</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>1.445186993959635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>13.81699010409972</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/experiment_results/SBFL_ONLY/Summary/ExamDB/multiple_bugs_123bug.xlsx
+++ b/experiment_results/SBFL_ONLY/Summary/ExamDB/multiple_bugs_123bug.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="10">
   <si>
     <t>EVALUATION_METRIC</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Proportion of cases that found bugs</t>
+  </si>
+  <si>
+    <t>Num of cases that found bugs (Hit@x)</t>
   </si>
   <si>
     <t>Best rank</t>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09677419354838714</v>
+        <v>0.09677419354838709</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -458,7 +461,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.245161290322581</v>
+        <v>0.2450268817204301</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -508,32 +511,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>7.890322580645162</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>26.4983870967742</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>3.14355481300603</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>10.55712633337616</v>
+      <c r="C19">
+        <v>3.143554813006029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>10.55712633337607</v>
       </c>
     </row>
   </sheetData>
@@ -543,7 +589,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -568,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07473118279569896</v>
+        <v>0.07473118279569893</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -576,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2153225806451614</v>
+        <v>0.2161290322580645</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -584,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4163978494623665</v>
+        <v>0.4172043010752687</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -592,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.5118279569892447</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -600,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5634408602150517</v>
+        <v>0.5641129032258063</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -650,32 +696,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>2.817741935483871</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>24.44677419354839</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.122606348798347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>9.739750674720442</v>
+      <c r="C19">
+        <v>1.122606348798349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>9.73975067472038</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +774,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -710,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07473118279569896</v>
+        <v>0.07473118279569893</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -718,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2147849462365592</v>
+        <v>0.2155913978494624</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -726,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4163978494623665</v>
+        <v>0.4172043010752687</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -734,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.5118279569892447</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -742,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5672043010752669</v>
+        <v>0.5678763440860215</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -792,32 +881,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>2.816129032258064</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>16.98064516129032</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.121963757871731</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>6.765197275414458</v>
+      <c r="C19">
+        <v>1.121963757871733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>6.76519727541442</v>
       </c>
     </row>
   </sheetData>
@@ -827,7 +959,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -852,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07473118279569896</v>
+        <v>0.07473118279569893</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -860,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2153225806451614</v>
+        <v>0.2161290322580645</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -868,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4163978494623665</v>
+        <v>0.4172043010752687</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -876,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.5118279569892447</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -884,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5672043010752669</v>
+        <v>0.5678763440860215</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -934,32 +1066,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>2.814516129032258</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>16.95322580645161</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.121321166945115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>6.754273229661985</v>
+      <c r="C19">
+        <v>1.121321166945117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>6.754273229661945</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +1144,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -994,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07473118279569896</v>
+        <v>0.07473118279569893</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1002,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2153225806451614</v>
+        <v>0.2161290322580645</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1010,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4163978494623665</v>
+        <v>0.4172043010752687</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1018,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.5118279569892447</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1026,7 +1201,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5672043010752669</v>
+        <v>0.5678763440860215</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1076,32 +1251,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>2.814516129032258</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>16.95322580645161</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.121321166945115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>6.754273229661985</v>
+      <c r="C19">
+        <v>1.121321166945117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>6.754273229661945</v>
       </c>
     </row>
   </sheetData>
@@ -1111,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1136,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07311827956989252</v>
+        <v>0.07311827956989247</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1144,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2123655913978495</v>
+        <v>0.2131720430107527</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1152,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4180107526881728</v>
+        <v>0.4188172043010752</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1160,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.509677419354836</v>
+        <v>0.5103494623655913</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1168,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5626344086021485</v>
+        <v>0.5633064516129032</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1218,32 +1436,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>2.79516129032258</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>17.66774193548387</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.113610075825722</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>7.038941010152916</v>
+      <c r="C19">
+        <v>1.113610075825724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>7.038941010152887</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1514,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1278,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.04999999999999998</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1286,7 +1547,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1276881720430107</v>
+        <v>0.128494623655914</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1294,7 +1555,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2553763440860222</v>
+        <v>0.2561827956989247</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1302,7 +1563,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.2967741935483878</v>
+        <v>0.2975806451612903</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1310,7 +1571,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3193548387096781</v>
+        <v>0.3201612903225807</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1360,32 +1621,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>5.459677419354839</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>39.52741935483871</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>2.175170286595544</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>15.74797583858113</v>
+      <c r="C19">
+        <v>2.175170286595543</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>15.74797583858117</v>
       </c>
     </row>
   </sheetData>
@@ -1395,7 +1699,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1502,32 +1806,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>17.9741935483871</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>49.86451612903226</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>7.161033286210009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>19.86634108726387</v>
+      <c r="C19">
+        <v>7.161033286210021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>19.86634108726386</v>
       </c>
     </row>
   </sheetData>
@@ -1537,7 +1884,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1570,7 +1917,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1293010752688171</v>
+        <v>0.1293010752688172</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1578,7 +1925,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3583333333333344</v>
+        <v>0.3591397849462366</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1586,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4465053763440845</v>
+        <v>0.4473118279569892</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1594,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4682795698924708</v>
+        <v>0.4690860215053763</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1644,32 +1991,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>6.95483870967742</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>41.61129032258064</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>2.770852075568659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>16.57820331576913</v>
+      <c r="C19">
+        <v>2.770852075568671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>16.5782033157692</v>
       </c>
     </row>
   </sheetData>
@@ -1679,7 +2069,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1704,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07473118279569896</v>
+        <v>0.07473118279569893</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1712,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2153225806451614</v>
+        <v>0.2161290322580645</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1720,7 +2110,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4163978494623665</v>
+        <v>0.4172043010752687</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1728,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.5118279569892447</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1736,7 +2126,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5634408602150517</v>
+        <v>0.5641129032258063</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1786,32 +2176,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>2.817741935483871</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>24.44677419354839</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.122606348798347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>9.739750674720442</v>
+      <c r="C19">
+        <v>1.122606348798349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>9.73975067472038</v>
       </c>
     </row>
   </sheetData>
@@ -1821,7 +2254,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1846,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07473118279569896</v>
+        <v>0.07473118279569893</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1854,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2153225806451614</v>
+        <v>0.2161290322580645</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1862,7 +2295,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4163978494623665</v>
+        <v>0.4172043010752687</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1870,7 +2303,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.5118279569892447</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1878,7 +2311,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5634408602150517</v>
+        <v>0.5641129032258063</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1928,32 +2361,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>2.817741935483871</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>24.44677419354839</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.122606348798347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>9.739750674720442</v>
+      <c r="C19">
+        <v>1.122606348798349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>9.73975067472038</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +2439,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1988,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07311827956989252</v>
+        <v>0.07311827956989247</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1996,7 +2472,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2123655913978495</v>
+        <v>0.2131720430107527</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2004,7 +2480,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4180107526881728</v>
+        <v>0.4188172043010752</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2012,7 +2488,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.509677419354836</v>
+        <v>0.5103494623655913</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2020,7 +2496,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5602150537634388</v>
+        <v>0.5608870967741935</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2070,32 +2546,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>2.79516129032258</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>25.09032258064516</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.113610075825722</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>9.996144454440273</v>
+      <c r="C19">
+        <v>1.113610075825724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>9.99614445444023</v>
       </c>
     </row>
   </sheetData>
@@ -2105,7 +2624,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2138,7 +2657,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1293010752688171</v>
+        <v>0.1293010752688172</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2146,7 +2665,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3583333333333344</v>
+        <v>0.3591397849462366</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2154,7 +2673,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4465053763440845</v>
+        <v>0.4473118279569892</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2162,7 +2681,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4682795698924708</v>
+        <v>0.4690860215053763</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2212,32 +2731,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>6.95483870967742</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>41.61129032258064</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>2.770852075568659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>16.57820331576913</v>
+      <c r="C19">
+        <v>2.770852075568671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>16.5782033157692</v>
       </c>
     </row>
   </sheetData>
@@ -2247,7 +2809,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2280,7 +2842,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1293010752688171</v>
+        <v>0.1293010752688172</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2288,7 +2850,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3583333333333344</v>
+        <v>0.3591397849462366</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2296,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4465053763440845</v>
+        <v>0.4473118279569892</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2304,7 +2866,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4682795698924708</v>
+        <v>0.4690860215053763</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2354,32 +2916,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>6.95483870967742</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>41.61129032258064</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>2.770852075568659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>16.57820331576913</v>
+      <c r="C19">
+        <v>2.770852075568671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>16.5782033157692</v>
       </c>
     </row>
   </sheetData>
@@ -2389,7 +2994,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2422,7 +3027,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1293010752688171</v>
+        <v>0.1293010752688172</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2430,7 +3035,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3583333333333344</v>
+        <v>0.3591397849462366</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2438,7 +3043,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4465053763440845</v>
+        <v>0.4473118279569892</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2446,7 +3051,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4682795698924708</v>
+        <v>0.4690860215053763</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2496,32 +3101,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>6.95483870967742</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>41.61129032258064</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>2.770852075568659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>16.57820331576913</v>
+      <c r="C19">
+        <v>2.770852075568671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>16.5782033157692</v>
       </c>
     </row>
   </sheetData>
@@ -2531,7 +3179,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2564,7 +3212,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.08440860215053766</v>
+        <v>0.08521505376344085</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2572,7 +3220,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.2303763440860221</v>
+        <v>0.2311827956989247</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2580,7 +3228,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3016129032258072</v>
+        <v>0.3024193548387097</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2588,7 +3236,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.3158602150537642</v>
+        <v>0.3166666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2638,32 +3286,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>7.106451612903226</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>32.44032258064516</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>2.831255622670597</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>12.92443130702994</v>
+      <c r="C19">
+        <v>2.831255622670595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>12.92443130702986</v>
       </c>
     </row>
   </sheetData>
@@ -2673,7 +3364,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2698,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07231182795698929</v>
+        <v>0.07231182795698925</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2706,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1811827956989245</v>
+        <v>0.1819892473118279</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2714,7 +3405,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.414247311827958</v>
+        <v>0.4150537634408602</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2722,7 +3413,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.502150537634406</v>
+        <v>0.5028225806451612</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2730,7 +3421,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5465053763440838</v>
+        <v>0.5471774193548387</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2780,32 +3471,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>2.869354838709677</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>26.81774193548387</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.143169258450063</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>10.68435933684615</v>
+      <c r="C19">
+        <v>1.143169258450064</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>10.68435933684609</v>
       </c>
     </row>
   </sheetData>
@@ -2815,7 +3549,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2848,7 +3582,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1293010752688171</v>
+        <v>0.1293010752688172</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2856,7 +3590,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3583333333333344</v>
+        <v>0.3591397849462366</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2864,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4465053763440845</v>
+        <v>0.4473118279569892</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2872,7 +3606,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4682795698924708</v>
+        <v>0.4690860215053763</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2922,32 +3656,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>6.95483870967742</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>41.61129032258064</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>2.770852075568659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>16.57820331576913</v>
+      <c r="C19">
+        <v>2.770852075568671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>16.5782033157692</v>
       </c>
     </row>
   </sheetData>
@@ -2957,7 +3734,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2982,7 +3759,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07392473118279573</v>
+        <v>0.0739247311827957</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2990,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2104838709677419</v>
+        <v>0.2112903225806452</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2998,7 +3775,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4147849462365602</v>
+        <v>0.4154569892473118</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3006,7 +3783,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4900537634408575</v>
+        <v>0.4907258064516128</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3014,7 +3791,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5319892473118256</v>
+        <v>0.5326612903225806</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3064,32 +3841,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>2.785483870967742</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>19.82903225806452</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.109754530266025</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>7.900012851818524</v>
+      <c r="C19">
+        <v>1.109754530266027</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>7.900012851818489</v>
       </c>
     </row>
   </sheetData>
@@ -3099,7 +3919,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3124,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07473118279569896</v>
+        <v>0.07473118279569893</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3132,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2153225806451614</v>
+        <v>0.2161290322580645</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3140,7 +3960,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4163978494623665</v>
+        <v>0.4172043010752687</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3148,7 +3968,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.5118279569892447</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3156,7 +3976,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5634408602150517</v>
+        <v>0.5641129032258063</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3206,32 +4026,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>2.817741935483871</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>24.44677419354839</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.122606348798347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>9.739750674720442</v>
+      <c r="C19">
+        <v>1.122606348798349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>9.73975067472038</v>
       </c>
     </row>
   </sheetData>
@@ -3241,7 +4104,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3266,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07473118279569896</v>
+        <v>0.07473118279569893</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3274,7 +4137,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.2153225806451614</v>
+        <v>0.2161290322580645</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3282,7 +4145,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4163978494623665</v>
+        <v>0.4172043010752687</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3290,7 +4153,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.5118279569892447</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3298,7 +4161,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5634408602150517</v>
+        <v>0.5641129032258063</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3348,32 +4211,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>2.817741935483871</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>24.44677419354839</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.122606348798347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>9.739750674720442</v>
+      <c r="C19">
+        <v>1.122606348798349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>9.73975067472038</v>
       </c>
     </row>
   </sheetData>
@@ -3383,7 +4289,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3408,7 +4314,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07231182795698929</v>
+        <v>0.07231182795698925</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3416,7 +4322,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1811827956989245</v>
+        <v>0.1819892473118279</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3424,7 +4330,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.414247311827958</v>
+        <v>0.4150537634408602</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3432,7 +4338,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.502150537634406</v>
+        <v>0.5028225806451612</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3440,7 +4346,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5465053763440838</v>
+        <v>0.5471774193548387</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3490,32 +4396,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>2.869354838709677</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>20.02258064516129</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.143169258450063</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>7.977123763012458</v>
+      <c r="C19">
+        <v>1.143169258450064</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>7.977123763012422</v>
       </c>
     </row>
   </sheetData>
@@ -3525,7 +4474,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3558,7 +4507,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.04435483870967742</v>
+        <v>0.04516129032258064</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3566,7 +4515,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.07983870967741935</v>
+        <v>0.08064516129032258</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3574,7 +4523,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.08629032258064516</v>
+        <v>0.08709677419354839</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3582,7 +4531,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.09274193548387097</v>
+        <v>0.0935483870967742</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3632,32 +4581,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>11.10645161290323</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>33.76935483870967</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>4.424881120678577</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>13.45392623056161</v>
+      <c r="C19">
+        <v>4.424881120678576</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>13.45392623056163</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +4659,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3692,7 +4684,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07231182795698929</v>
+        <v>0.07231182795698925</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3700,7 +4692,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1731182795698923</v>
+        <v>0.1739247311827957</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3708,7 +4700,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4051075268817216</v>
+        <v>0.4059139784946236</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3716,7 +4708,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.487903225806449</v>
+        <v>0.4885752688172043</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3724,7 +4716,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5142473118279546</v>
+        <v>0.5149193548387095</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3774,32 +4766,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.311290322580645</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>31.83709677419355</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.319239172342874</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>12.68410230047551</v>
+      <c r="C19">
+        <v>1.319239172342876</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>12.68410230047546</v>
       </c>
     </row>
   </sheetData>
@@ -3809,7 +4844,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3842,7 +4877,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.09677419354838714</v>
+        <v>0.09677419354838709</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3866,7 +4901,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.2443548387096778</v>
+        <v>0.2442204301075269</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3916,32 +4951,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>7.896774193548387</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>26.50483870967742</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
         <v>3.146125176712494</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>10.55969669708263</v>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>10.55969669708253</v>
       </c>
     </row>
   </sheetData>
@@ -3951,7 +5029,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3976,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07392473118279573</v>
+        <v>0.0739247311827957</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3984,7 +5062,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.216935483870968</v>
+        <v>0.217741935483871</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3992,7 +5070,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.4166666666666676</v>
+        <v>0.4173387096774194</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4000,7 +5078,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.5064516129032233</v>
+        <v>0.5071236559139785</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4008,7 +5086,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5489247311827935</v>
+        <v>0.5495967741935482</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4058,32 +5136,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>2.753225806451613</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>27.2</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.096902711733704</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>10.83665338645415</v>
+      <c r="C19">
+        <v>1.096902711733705</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>10.83665338645411</v>
       </c>
     </row>
   </sheetData>
@@ -4093,7 +5214,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4200,32 +5321,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>17.9741935483871</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>49.86451612903226</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>7.161033286210009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>19.86634108726387</v>
+      <c r="C19">
+        <v>7.161033286210021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>19.86634108726386</v>
       </c>
     </row>
   </sheetData>
@@ -4235,7 +5399,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4268,7 +5432,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1293010752688171</v>
+        <v>0.1293010752688172</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4276,7 +5440,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3583333333333344</v>
+        <v>0.3591397849462366</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4284,7 +5448,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4465053763440845</v>
+        <v>0.4473118279569892</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4292,7 +5456,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4682795698924708</v>
+        <v>0.4690860215053763</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4342,32 +5506,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>6.95483870967742</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>41.61129032258064</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>2.770852075568659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>16.57820331576913</v>
+      <c r="C19">
+        <v>2.770852075568671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>16.5782033157692</v>
       </c>
     </row>
   </sheetData>
@@ -4377,7 +5584,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4410,7 +5617,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1293010752688171</v>
+        <v>0.1293010752688172</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4418,7 +5625,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.3583333333333344</v>
+        <v>0.3591397849462366</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4426,7 +5633,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.4465053763440845</v>
+        <v>0.4473118279569892</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4434,7 +5641,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4682795698924708</v>
+        <v>0.4690860215053763</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4484,32 +5691,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>6.95483870967742</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>41.61129032258064</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>2.770852075568659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>16.57820331576913</v>
+      <c r="C19">
+        <v>2.770852075568671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>16.5782033157692</v>
       </c>
     </row>
   </sheetData>
@@ -4519,7 +5769,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4544,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05403225806451614</v>
+        <v>0.05403225806451613</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4552,7 +5802,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.1688172043010751</v>
+        <v>0.1696236559139785</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4560,7 +5810,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.339516129032259</v>
+        <v>0.3403225806451613</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4568,7 +5818,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.3986559139784956</v>
+        <v>0.3994623655913979</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4576,7 +5826,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>0.4325268817204294</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4626,32 +5876,75 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>3.62741935483871</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>34.68064516129032</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1.445186993959635</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>13.81699010409972</v>
+      <c r="C19">
+        <v>1.445186993959636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>13.81699010409968</v>
       </c>
     </row>
   </sheetData>
